--- a/Doc/升压电阻计算.xlsx
+++ b/Doc/升压电阻计算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WorkSpace\Software\FOC-Driver-Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WorkSpace\Software\FOC_Controller\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD184E1C-6102-498E-AA0C-F646CD6B2338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06323B3F-A6B5-4790-BC26-B987FA3C96FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14790" yWindow="2790" windowWidth="12285" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -51,13 +45,47 @@
   </si>
   <si>
     <t>计数周期(100整数倍)</t>
+  </si>
+  <si>
+    <r>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(下)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(上)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +104,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -115,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -416,14 +453,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -452,26 +489,38 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="e">
+      <c r="A5">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>4.7</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>7.1106382978723408</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="e">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -489,6 +538,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -496,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,68 +562,68 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>168000</v>
+        <v>72000</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D3" s="4">
         <f>A3/B3/C3</f>
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
